--- a/biology/Zoologie/Ceratobatrachidae/Ceratobatrachidae.xlsx
+++ b/biology/Zoologie/Ceratobatrachidae/Ceratobatrachidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ceratobatrachidae sont une famille d'amphibiens[1]. Elle a été créée par George Albert Boulenger en 1884.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ceratobatrachidae sont une famille d'amphibiens. Elle a été créée par George Albert Boulenger en 1884.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces des quatre genres de cette famille se rencontrent dans le Sud-Est de l'Asie et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces des quatre genres de cette famille se rencontrent dans le Sud-Est de l'Asie et en Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-familles et des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (13 février 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (13 février 2016) :
 sous-famille Alcalinae Brown, Siler, Richards, Diesmos, &amp; Cannatella, 2015
 genre Alcalus Brown, Siler, Richards, Diesmos &amp; Cannatella, 2015
 sous-famille Ceratobatrachinae Boulenger, 1884
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1884 : Diagnoses of new reptiles and batrachians from the Solomon Islands, collected and presented to the British Museum by H. B. Guppy, Esq., M.B., H.M.S. Lark. Proceedings of the Zoological Society of London, vol. 1884, p. 210-213 (texte intégral).</t>
         </is>
